--- a/Data/EC/NIT-9003801478.xlsx
+++ b/Data/EC/NIT-9003801478.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D7ADEDD-7CC8-4D25-96C8-76CD0AEF93CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08FAD78F-97BB-48D3-84C9-402591331891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7F8B8C56-8B02-408E-891D-D51839D5F214}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C7071E9D-D096-450D-9FB5-093702181A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,25 +65,100 @@
     <t>CC</t>
   </si>
   <si>
-    <t>78749451</t>
-  </si>
-  <si>
-    <t>NELSON ELIAS BABILONIA ESPITIA</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>73102359</t>
-  </si>
-  <si>
-    <t>JOSE LUIS SANTIAGO BANDA HERNANDEZ</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
+    <t>1050970734</t>
+  </si>
+  <si>
+    <t>DAYANA ISABEL LAMBIS MENESES</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1143399917</t>
+  </si>
+  <si>
+    <t>KEILY MILENA GARCIA MARTINEZ</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1149188769</t>
+  </si>
+  <si>
+    <t>CARLOS JULIO BABILONIA MARTINEZ</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>110144</t>
+  </si>
+  <si>
+    <t>JHON JAIRO FLORES FERIA</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1143358895</t>
+  </si>
+  <si>
+    <t>VANESSA ISABEL HERRERA NUÑEZ</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>20175389</t>
+  </si>
+  <si>
+    <t>RAFAEL GOMEZ CALDERIN</t>
+  </si>
+  <si>
+    <t>79680122</t>
+  </si>
+  <si>
+    <t>RAFAEL ANTONIO DAVILA MARTINEZ</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
   </si>
   <si>
     <t>9154177</t>
@@ -95,114 +170,18 @@
     <t>1905</t>
   </si>
   <si>
-    <t>1149188769</t>
-  </si>
-  <si>
-    <t>CARLOS JULIO BABILONIA MARTINEZ</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1143358895</t>
-  </si>
-  <si>
-    <t>VANESSA ISABEL HERRERA NUÑEZ</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
     <t>1047409673</t>
   </si>
   <si>
     <t>JOSE LUIS VEGA BARRETO</t>
   </si>
   <si>
-    <t>1050970734</t>
-  </si>
-  <si>
-    <t>DAYANA ISABEL LAMBIS MENESES</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
     <t>1063151477</t>
   </si>
   <si>
     <t>DOMYS MANUEL BALLESTERO BALLESTERO</t>
   </si>
   <si>
-    <t>1143399917</t>
-  </si>
-  <si>
-    <t>KEILY MILENA GARCIA MARTINEZ</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>110144</t>
-  </si>
-  <si>
-    <t>JHON JAIRO FLORES FERIA</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>20175389</t>
-  </si>
-  <si>
-    <t>RAFAEL GOMEZ CALDERIN</t>
-  </si>
-  <si>
-    <t>79680122</t>
-  </si>
-  <si>
-    <t>RAFAEL ANTONIO DAVILA MARTINEZ</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
     <t>1002189465</t>
   </si>
   <si>
@@ -215,21 +194,21 @@
     <t>JEAN CARLOS OLIVO MENDOZA</t>
   </si>
   <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
     <t>2001</t>
   </si>
   <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
     <t>1047495828</t>
   </si>
   <si>
@@ -245,22 +224,22 @@
     <t>YEISON GUILLERMO MIRANDA MACEA</t>
   </si>
   <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
     <t>2112</t>
   </si>
   <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>1063167129</t>
-  </si>
-  <si>
-    <t>LUIS MARIANO RODRIGUEZ PESTANA</t>
-  </si>
-  <si>
-    <t>2504</t>
+    <t>1002200499</t>
+  </si>
+  <si>
+    <t>MARIA BERNARDA NUÑEZ CASTILLA</t>
+  </si>
+  <si>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -359,7 +338,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -372,9 +353,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -574,23 +553,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -618,10 +597,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -674,7 +653,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E929D812-F372-0DCC-2185-E65CCDB43543}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6CE9EA2-D11D-77A6-5109-41307B14CC15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1025,8 +1004,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984F284D-D456-472C-BDEA-002BF716A439}">
-  <dimension ref="B2:J57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAD6550-97D9-4F8E-893E-C24B62AEB67F}">
+  <dimension ref="B2:J54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1050,7 +1029,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1095,7 +1074,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1127,12 +1106,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1190874</v>
+        <v>962106</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1143,17 +1122,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C13" s="5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F13" s="5">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1180,13 +1159,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1203,10 +1182,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>49680</v>
+        <v>4596</v>
       </c>
       <c r="G16" s="18">
-        <v>1242000</v>
+        <v>689454</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1226,10 +1205,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>76830</v>
+        <v>27578</v>
       </c>
       <c r="G17" s="18">
-        <v>1920746</v>
+        <v>689454</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1240,19 +1219,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
-        <v>76830</v>
+        <v>29509</v>
       </c>
       <c r="G18" s="18">
-        <v>1920746</v>
+        <v>952333</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1263,19 +1242,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G19" s="18">
-        <v>828116</v>
+        <v>952333</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1286,13 +1265,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F20" s="18">
         <v>29509</v>
@@ -1309,13 +1288,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F21" s="18">
         <v>29509</v>
@@ -1332,13 +1311,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
         <v>29509</v>
@@ -1355,13 +1334,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
         <v>29509</v>
@@ -1378,13 +1357,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F24" s="18">
         <v>29509</v>
@@ -1401,13 +1380,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
         <v>29509</v>
@@ -1424,13 +1403,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F26" s="18">
         <v>29509</v>
@@ -1447,13 +1426,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F27" s="18">
         <v>29509</v>
@@ -1470,19 +1449,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F28" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G28" s="18">
-        <v>952333</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1493,19 +1472,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F29" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G29" s="18">
-        <v>952333</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1516,19 +1495,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="F30" s="18">
-        <v>34800</v>
+        <v>12500</v>
       </c>
       <c r="G30" s="18">
-        <v>870000</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1539,19 +1518,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F31" s="18">
-        <v>51304</v>
+        <v>34800</v>
       </c>
       <c r="G31" s="18">
-        <v>1282600</v>
+        <v>870000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1562,19 +1541,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>37</v>
-      </c>
       <c r="E32" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F32" s="18">
-        <v>4596</v>
+        <v>15625</v>
       </c>
       <c r="G32" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1585,19 +1564,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F33" s="18">
-        <v>33125</v>
+        <v>27604</v>
       </c>
       <c r="G33" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1608,19 +1587,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F34" s="18">
-        <v>27578</v>
+        <v>33125</v>
       </c>
       <c r="G34" s="18">
-        <v>689454</v>
+        <v>908526</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1631,19 +1610,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F35" s="18">
-        <v>12500</v>
+        <v>33125</v>
       </c>
       <c r="G35" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1660,13 +1639,13 @@
         <v>45</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>51304</v>
       </c>
       <c r="G36" s="18">
-        <v>781242</v>
+        <v>1282600</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1677,19 +1656,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G37" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1700,19 +1679,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="17" t="s">
-        <v>50</v>
-      </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F38" s="18">
-        <v>15625</v>
+        <v>33125</v>
       </c>
       <c r="G38" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1723,19 +1702,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="E39" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="16" t="s">
-        <v>53</v>
-      </c>
       <c r="F39" s="18">
-        <v>33125</v>
+        <v>19875</v>
       </c>
       <c r="G39" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1746,19 +1725,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="E40" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F40" s="18">
-        <v>27604</v>
+        <v>33125</v>
       </c>
       <c r="G40" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1769,13 +1748,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F41" s="18">
         <v>33125</v>
@@ -1792,13 +1771,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F42" s="18">
         <v>33125</v>
@@ -1815,13 +1794,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F43" s="18">
         <v>33125</v>
@@ -1844,13 +1823,13 @@
         <v>58</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F44" s="18">
-        <v>33125</v>
+        <v>24578</v>
       </c>
       <c r="G44" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1861,19 +1840,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>62</v>
       </c>
       <c r="F45" s="18">
-        <v>33125</v>
+        <v>21804</v>
       </c>
       <c r="G45" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1884,19 +1863,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>63</v>
       </c>
       <c r="F46" s="18">
-        <v>19875</v>
+        <v>36341</v>
       </c>
       <c r="G46" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1907,144 +1886,75 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>66</v>
-      </c>
       <c r="F47" s="18">
-        <v>24578</v>
+        <v>36341</v>
       </c>
       <c r="G47" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="16" t="s">
+      <c r="B48" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F48" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G48" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F49" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G49" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F50" s="18">
-        <v>21804</v>
-      </c>
-      <c r="G50" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F51" s="24">
-        <v>52000</v>
-      </c>
-      <c r="G51" s="24">
+      <c r="F48" s="24">
+        <v>26572</v>
+      </c>
+      <c r="G48" s="24">
         <v>1423500</v>
       </c>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B56" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="32"/>
-      <c r="H56" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B57" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C57" s="32"/>
-      <c r="H57" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="32"/>
+      <c r="H53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="32"/>
+      <c r="H54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H53:J53"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
